--- a/DomWiki/Memory calculation.xlsx
+++ b/DomWiki/Memory calculation.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGuk\source\repos\P DomWik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGuk\source\repos\P DomWiki\DomWiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549DEED-E4AD-4C4E-B3B5-8DD35C1BCE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2450A261-618E-4A29-902A-40C803A6BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20820" yWindow="300" windowWidth="19830" windowHeight="11490" xr2:uid="{0B61927E-A38C-4ADE-80F7-52585CE592BA}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{0B61927E-A38C-4ADE-80F7-52585CE592BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -117,6 +118,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -125,9 +129,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -151,6 +152,2799 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5792</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11585</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23170</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46340</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6D5-4EB0-816B-0263C55BF8F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="713787096"/>
+        <c:axId val="713793984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="713787096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713793984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="713793984"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713787096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25113692038495189"/>
+                  <c:y val="-1.8518518518518517E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC64-445B-86BF-1AB7C22A7CA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="558864536"/>
+        <c:axId val="558866504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="558864536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558866504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="558866504"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558864536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95238095238095233</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.96296296296296291</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96551724137931039</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96969696969696972</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97142857142857142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D97B-4BBF-8D9A-A18B8B45AAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="738157248"/>
+        <c:axId val="738161512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="738157248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738161512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="738161512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738157248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9F950D-9E07-495F-B50C-522EE649A9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F3B8B0-7E87-402E-BE33-385322F93349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4AD80E-A28A-4C84-858C-D030CA89E508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21DBA5BE-A978-4141-A7D8-34F047C31D1B}" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <autoFilter ref="A1:E32" xr:uid="{21DBA5BE-A978-4141-A7D8-34F047C31D1B}"/>
@@ -159,8 +2953,8 @@
     <tableColumn id="2" xr3:uid="{982CBA61-BA72-443F-B0AA-B27DE5D06E7B}" name="arrays" dataDxfId="4">
       <calculatedColumnFormula>2^Table1[[#This Row],[bitWidth]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6B7BE2C6-9B97-4201-BFEB-293FF148710C}" name="threshld" dataDxfId="1">
-      <calculatedColumnFormula>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{6B7BE2C6-9B97-4201-BFEB-293FF148710C}" name="threshld" dataDxfId="0">
+      <calculatedColumnFormula>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D53CBD5C-1A34-48FB-BE1A-CA31BFF8F641}" name="elements" dataDxfId="3">
       <calculatedColumnFormula>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</calculatedColumnFormula>
@@ -470,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB13C4E8-4A59-4F24-BCCE-6A5C44C279BC}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +3277,7 @@
     <col min="4" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +3294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -509,8 +3303,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="6">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>5</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>2</v>
       </c>
       <c r="D2" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -521,7 +3315,7 @@
         <v>0G</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -530,8 +3324,8 @@
         <v>4</v>
       </c>
       <c r="C3" s="6">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>8</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>2</v>
       </c>
       <c r="D3" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -542,7 +3336,7 @@
         <v>0G</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -551,8 +3345,8 @@
         <v>8</v>
       </c>
       <c r="C4" s="6">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>11</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -563,7 +3357,7 @@
         <v>0G</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -572,8 +3366,8 @@
         <v>16</v>
       </c>
       <c r="C5" s="6">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>16</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -584,7 +3378,7 @@
         <v>0G</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -593,8 +3387,8 @@
         <v>32</v>
       </c>
       <c r="C6" s="6">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>22</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -605,7 +3399,7 @@
         <v>0G</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -614,8 +3408,8 @@
         <v>64</v>
       </c>
       <c r="C7" s="6">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>32</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -626,7 +3420,7 @@
         <v>0G</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -635,8 +3429,8 @@
         <v>128</v>
       </c>
       <c r="C8" s="6">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>45</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -647,7 +3441,7 @@
         <v>0G</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -656,8 +3450,8 @@
         <v>256</v>
       </c>
       <c r="C9">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>64</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -667,8 +3461,22 @@
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>G9-Table1[[#This Row],[threshld]]</f>
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>64</v>
+      </c>
+      <c r="H9">
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <f>LOG(H9,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -677,8 +3485,8 @@
         <v>512</v>
       </c>
       <c r="C10">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>90</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -688,8 +3496,12 @@
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>G10-Table1[[#This Row],[threshld]]</f>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -698,8 +3510,8 @@
         <v>1024</v>
       </c>
       <c r="C11" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>128</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>45</v>
       </c>
       <c r="D11" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -709,8 +3521,15 @@
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>G11-Table1[[#This Row],[threshld]]</f>
+        <v>83</v>
+      </c>
+      <c r="G11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -719,8 +3538,8 @@
         <v>2048</v>
       </c>
       <c r="C12" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>181</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>64</v>
       </c>
       <c r="D12" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
@@ -730,8 +3549,12 @@
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>G12-Table1[[#This Row],[threshld]]</f>
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -740,19 +3563,26 @@
         <v>4096</v>
       </c>
       <c r="C13" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>256</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>90</v>
       </c>
       <c r="D13" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>G13-Table1[[#This Row],[threshld]]</f>
+        <v>166</v>
+      </c>
+      <c r="G13">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -761,19 +3591,23 @@
         <v>8192</v>
       </c>
       <c r="C14" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>362</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>128</v>
       </c>
       <c r="D14" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>G14-Table1[[#This Row],[threshld]]</f>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -782,19 +3616,26 @@
         <v>16384</v>
       </c>
       <c r="C15" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>512</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>181</v>
       </c>
       <c r="D15" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>G15-Table1[[#This Row],[threshld]]</f>
+        <v>331</v>
+      </c>
+      <c r="G15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -803,19 +3644,30 @@
         <v>32768</v>
       </c>
       <c r="C16" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>724</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>256</v>
       </c>
       <c r="D16" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>G16-Table1[[#This Row],[threshld]]</f>
+        <v>-256</v>
+      </c>
+      <c r="H16">
+        <v>512</v>
+      </c>
+      <c r="I16">
+        <f>LOG(H16,2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -824,19 +3676,26 @@
         <v>65536</v>
       </c>
       <c r="C17" s="4">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>1024</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>362</v>
       </c>
       <c r="D17" s="5">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>G17-Table1[[#This Row],[threshld]]</f>
+        <v>662</v>
+      </c>
+      <c r="G17">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -845,19 +3704,23 @@
         <v>131072</v>
       </c>
       <c r="C18" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>1448</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>512</v>
       </c>
       <c r="D18" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>1G</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0G</v>
+      </c>
+      <c r="F18">
+        <f>G18-Table1[[#This Row],[threshld]]</f>
+        <v>-512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -866,19 +3729,23 @@
         <v>262144</v>
       </c>
       <c r="C19" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>2048</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>724</v>
       </c>
       <c r="D19" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>536</v>
+        <v>189</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>4G</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1G</v>
+      </c>
+      <c r="F19">
+        <f>G19-Table1[[#This Row],[threshld]]</f>
+        <v>-724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -887,19 +3754,23 @@
         <v>524288</v>
       </c>
       <c r="C20" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>2896</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>1024</v>
       </c>
       <c r="D20" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>1518</v>
+        <v>536</v>
       </c>
       <c r="E20" s="3" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>11G</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4G</v>
+      </c>
+      <c r="F20">
+        <f>G20-Table1[[#This Row],[threshld]]</f>
+        <v>-1024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -908,19 +3779,23 @@
         <v>1048576</v>
       </c>
       <c r="C21" s="2">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>4096</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>1448</v>
       </c>
       <c r="D21" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>4294</v>
+        <v>1518</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>33G</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11G</v>
+      </c>
+      <c r="F21">
+        <f>G21-Table1[[#This Row],[threshld]]</f>
+        <v>-1448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -929,19 +3804,23 @@
         <v>2097152</v>
       </c>
       <c r="C22">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>5792</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>2048</v>
       </c>
       <c r="D22" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>12146</v>
+        <v>4294</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>94G</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33G</v>
+      </c>
+      <c r="F22">
+        <f>G22-Table1[[#This Row],[threshld]]</f>
+        <v>-2048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -950,19 +3829,23 @@
         <v>4194304</v>
       </c>
       <c r="C23">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>8192</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>2896</v>
       </c>
       <c r="D23" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>34359</v>
+        <v>12146</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>268G</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94G</v>
+      </c>
+      <c r="F23">
+        <f>G23-Table1[[#This Row],[threshld]]</f>
+        <v>-2896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -971,19 +3854,23 @@
         <v>8388608</v>
       </c>
       <c r="C24">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>11585</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>4096</v>
       </c>
       <c r="D24" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>97182</v>
+        <v>34359</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>759G</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>268G</v>
+      </c>
+      <c r="F24">
+        <f>G24-Table1[[#This Row],[threshld]]</f>
+        <v>-4096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -992,19 +3879,23 @@
         <v>16777216</v>
       </c>
       <c r="C25">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>16384</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>5792</v>
       </c>
       <c r="D25" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>274877</v>
+        <v>97173</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>2147G</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>759G</v>
+      </c>
+      <c r="F25">
+        <f>G25-Table1[[#This Row],[threshld]]</f>
+        <v>-5792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1013,19 +3904,23 @@
         <v>33554432</v>
       </c>
       <c r="C26">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>23170</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>8192</v>
       </c>
       <c r="D26" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>777456</v>
+        <v>274877</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>6073G</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2147G</v>
+      </c>
+      <c r="F26">
+        <f>G26-Table1[[#This Row],[threshld]]</f>
+        <v>-8192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1034,19 +3929,23 @@
         <v>67108864</v>
       </c>
       <c r="C27">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>32768</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>11585</v>
       </c>
       <c r="D27" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>2199023</v>
+        <v>777456</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>17179G</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6073G</v>
+      </c>
+      <c r="F27">
+        <f>G27-Table1[[#This Row],[threshld]]</f>
+        <v>-11585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1055,19 +3954,23 @@
         <v>134217728</v>
       </c>
       <c r="C28">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>46340</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>16384</v>
       </c>
       <c r="D28" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>6219649</v>
+        <v>2199023</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>48591G</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17179G</v>
+      </c>
+      <c r="F28">
+        <f>G28-Table1[[#This Row],[threshld]]</f>
+        <v>-16384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1076,19 +3979,23 @@
         <v>268435456</v>
       </c>
       <c r="C29">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>65536</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>23170</v>
       </c>
       <c r="D29" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>17592186</v>
+        <v>6219649</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>137438G</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48591G</v>
+      </c>
+      <c r="F29">
+        <f>G29-Table1[[#This Row],[threshld]]</f>
+        <v>-23170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1097,19 +4004,23 @@
         <v>536870912</v>
       </c>
       <c r="C30">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>92681</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>32768</v>
       </c>
       <c r="D30" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>49757732</v>
+        <v>17592186</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>388732G</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137438G</v>
+      </c>
+      <c r="F30">
+        <f>G30-Table1[[#This Row],[threshld]]</f>
+        <v>-32768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1118,19 +4029,23 @@
         <v>1073741824</v>
       </c>
       <c r="C31">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>131072</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>46340</v>
       </c>
       <c r="D31" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>140737488</v>
+        <v>49757196</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>1099511G</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388728G</v>
+      </c>
+      <c r="F31">
+        <f>G31-Table1[[#This Row],[threshld]]</f>
+        <v>-46340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1139,27 +4054,375 @@
         <v>2147483648</v>
       </c>
       <c r="C32">
-        <f>INT(2^(2+Table1[[#This Row],[bitWidth]]/2))</f>
-        <v>185363</v>
+        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
+        <v>65536</v>
       </c>
       <c r="D32" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>398064011</v>
+        <v>140737488</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>3109875G</v>
+        <v>1099511G</v>
+      </c>
+      <c r="F32">
+        <f>G32-Table1[[#This Row],[threshld]]</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>65536</v>
+      </c>
+      <c r="H32">
+        <v>65536</v>
+      </c>
+      <c r="I32">
+        <f>LOG(H32,2)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C32">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>65535</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBF5E2-9233-46AE-BBE3-F7747E864712}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>A1/A2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B35" si="0">A2/A3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{703e2fe1-4846-4393-8cf2-1bc71a04fd88}" enabled="1" method="Privileged" siteId="{41ff26dc-250f-4b13-8981-739be8610c21}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/DomWiki/Memory calculation.xlsx
+++ b/DomWiki/Memory calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGuk\source\repos\P DomWiki\DomWiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2450A261-618E-4A29-902A-40C803A6BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444DD59-A5F3-4B50-A912-BA906D817109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{0B61927E-A38C-4ADE-80F7-52585CE592BA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0B61927E-A38C-4ADE-80F7-52585CE592BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,10 @@
     <t>arrays</t>
   </si>
   <si>
-    <t>elements</t>
+    <t>memory</t>
   </si>
   <si>
-    <t>memory</t>
+    <t>M.elements</t>
   </si>
 </sst>
 </file>
@@ -236,97 +236,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>181</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>362</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>512</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>724</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1024</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1448</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2048</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2896</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4096</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5792</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8192</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11585</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16384</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23170</c:v>
+                  <c:v>784</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32768</c:v>
+                  <c:v>841</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46340</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>65536</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,13 +2954,13 @@
       <calculatedColumnFormula>2^Table1[[#This Row],[bitWidth]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6B7BE2C6-9B97-4201-BFEB-293FF148710C}" name="threshld" dataDxfId="0">
-      <calculatedColumnFormula>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[bitWidth]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D53CBD5C-1A34-48FB-BE1A-CA31BFF8F641}" name="elements" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{D53CBD5C-1A34-48FB-BE1A-CA31BFF8F641}" name="M.elements" dataDxfId="3">
       <calculatedColumnFormula>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{044C6758-2855-47FF-9CDC-BE9AC7D58BDF}" name="memory" dataDxfId="2">
-      <calculatedColumnFormula>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</calculatedColumnFormula>
+      <calculatedColumnFormula>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3267,7 +3267,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,10 +3288,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3303,15 +3303,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="6">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>2</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>1</v>
       </c>
       <c r="D2" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
     </row>
@@ -3324,15 +3324,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="6">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>2</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>4</v>
       </c>
       <c r="D3" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
     </row>
@@ -3345,15 +3345,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="6">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>4</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
     </row>
@@ -3366,15 +3366,15 @@
         <v>16</v>
       </c>
       <c r="C5" s="6">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>5</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
     </row>
@@ -3387,15 +3387,15 @@
         <v>32</v>
       </c>
       <c r="C6" s="6">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>8</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
     </row>
@@ -3408,15 +3408,15 @@
         <v>64</v>
       </c>
       <c r="C7" s="6">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>11</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
     </row>
@@ -3429,15 +3429,15 @@
         <v>128</v>
       </c>
       <c r="C8" s="6">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>16</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
     </row>
@@ -3450,20 +3450,20 @@
         <v>256</v>
       </c>
       <c r="C9">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>22</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F9">
         <f>G9-Table1[[#This Row],[threshld]]</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>64</v>
@@ -3485,20 +3485,20 @@
         <v>512</v>
       </c>
       <c r="C10">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>32</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>81</v>
       </c>
       <c r="D10" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F10">
         <f>G10-Table1[[#This Row],[threshld]]</f>
-        <v>-32</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3510,20 +3510,20 @@
         <v>1024</v>
       </c>
       <c r="C11" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>45</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>100</v>
       </c>
       <c r="D11" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F11">
         <f>G11-Table1[[#This Row],[threshld]]</f>
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>128</v>
@@ -3538,20 +3538,20 @@
         <v>2048</v>
       </c>
       <c r="C12" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>64</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>121</v>
       </c>
       <c r="D12" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F12">
         <f>G12-Table1[[#This Row],[threshld]]</f>
-        <v>-64</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3563,20 +3563,20 @@
         <v>4096</v>
       </c>
       <c r="C13" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>90</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>144</v>
       </c>
       <c r="D13" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>0</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F13">
         <f>G13-Table1[[#This Row],[threshld]]</f>
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="G13">
         <v>256</v>
@@ -3591,20 +3591,20 @@
         <v>8192</v>
       </c>
       <c r="C14" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>128</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>169</v>
       </c>
       <c r="D14" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
         <v>1</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F14">
         <f>G14-Table1[[#This Row],[threshld]]</f>
-        <v>-128</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3616,20 +3616,20 @@
         <v>16384</v>
       </c>
       <c r="C15" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>181</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>196</v>
       </c>
       <c r="D15" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F15">
         <f>G15-Table1[[#This Row],[threshld]]</f>
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G15">
         <v>512</v>
@@ -3644,20 +3644,20 @@
         <v>32768</v>
       </c>
       <c r="C16" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>256</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>225</v>
       </c>
       <c r="D16" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F16">
         <f>G16-Table1[[#This Row],[threshld]]</f>
-        <v>-256</v>
+        <v>-225</v>
       </c>
       <c r="H16">
         <v>512</v>
@@ -3676,20 +3676,20 @@
         <v>65536</v>
       </c>
       <c r="C17" s="4">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>362</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>256</v>
       </c>
       <c r="D17" s="5">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F17">
         <f>G17-Table1[[#This Row],[threshld]]</f>
-        <v>662</v>
+        <v>768</v>
       </c>
       <c r="G17">
         <v>1024</v>
@@ -3704,20 +3704,20 @@
         <v>131072</v>
       </c>
       <c r="C18" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>512</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>289</v>
       </c>
       <c r="D18" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
       <c r="F18">
         <f>G18-Table1[[#This Row],[threshld]]</f>
-        <v>-512</v>
+        <v>-289</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3729,20 +3729,20 @@
         <v>262144</v>
       </c>
       <c r="C19" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>724</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>324</v>
       </c>
       <c r="D19" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>1G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
       </c>
       <c r="F19">
         <f>G19-Table1[[#This Row],[threshld]]</f>
-        <v>-724</v>
+        <v>-324</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3754,20 +3754,20 @@
         <v>524288</v>
       </c>
       <c r="C20" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>1024</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>361</v>
       </c>
       <c r="D20" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>536</v>
+        <v>189</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>4G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>1G</v>
       </c>
       <c r="F20">
         <f>G20-Table1[[#This Row],[threshld]]</f>
-        <v>-1024</v>
+        <v>-361</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3779,20 +3779,20 @@
         <v>1048576</v>
       </c>
       <c r="C21" s="2">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>1448</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>400</v>
       </c>
       <c r="D21" s="3">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>1518</v>
+        <v>419</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>11G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>3G</v>
       </c>
       <c r="F21">
         <f>G21-Table1[[#This Row],[threshld]]</f>
-        <v>-1448</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3804,20 +3804,20 @@
         <v>2097152</v>
       </c>
       <c r="C22">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>2048</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>441</v>
       </c>
       <c r="D22" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>4294</v>
+        <v>924</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>33G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>7G</v>
       </c>
       <c r="F22">
         <f>G22-Table1[[#This Row],[threshld]]</f>
-        <v>-2048</v>
+        <v>-441</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3829,20 +3829,20 @@
         <v>4194304</v>
       </c>
       <c r="C23">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>2896</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>484</v>
       </c>
       <c r="D23" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>12146</v>
+        <v>2030</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>94G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>15G</v>
       </c>
       <c r="F23">
         <f>G23-Table1[[#This Row],[threshld]]</f>
-        <v>-2896</v>
+        <v>-484</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3854,20 +3854,20 @@
         <v>8388608</v>
       </c>
       <c r="C24">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>4096</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>529</v>
       </c>
       <c r="D24" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>34359</v>
+        <v>4437</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>268G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>34G</v>
       </c>
       <c r="F24">
         <f>G24-Table1[[#This Row],[threshld]]</f>
-        <v>-4096</v>
+        <v>-529</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3879,20 +3879,20 @@
         <v>16777216</v>
       </c>
       <c r="C25">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>5792</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>576</v>
       </c>
       <c r="D25" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>97173</v>
+        <v>9663</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>759G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>75G</v>
       </c>
       <c r="F25">
         <f>G25-Table1[[#This Row],[threshld]]</f>
-        <v>-5792</v>
+        <v>-576</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3904,20 +3904,20 @@
         <v>33554432</v>
       </c>
       <c r="C26">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>8192</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>625</v>
       </c>
       <c r="D26" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>274877</v>
+        <v>20971</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>2147G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>163G</v>
       </c>
       <c r="F26">
         <f>G26-Table1[[#This Row],[threshld]]</f>
-        <v>-8192</v>
+        <v>-625</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3929,20 +3929,20 @@
         <v>67108864</v>
       </c>
       <c r="C27">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>11585</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>676</v>
       </c>
       <c r="D27" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>777456</v>
+        <v>45365</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>6073G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>354G</v>
       </c>
       <c r="F27">
         <f>G27-Table1[[#This Row],[threshld]]</f>
-        <v>-11585</v>
+        <v>-676</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3954,20 +3954,20 @@
         <v>134217728</v>
       </c>
       <c r="C28">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>16384</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>729</v>
       </c>
       <c r="D28" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>2199023</v>
+        <v>97844</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>17179G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>764G</v>
       </c>
       <c r="F28">
         <f>G28-Table1[[#This Row],[threshld]]</f>
-        <v>-16384</v>
+        <v>-729</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3979,20 +3979,20 @@
         <v>268435456</v>
       </c>
       <c r="C29">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>23170</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>784</v>
       </c>
       <c r="D29" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>6219649</v>
+        <v>210453</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>48591G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>1644G</v>
       </c>
       <c r="F29">
         <f>G29-Table1[[#This Row],[threshld]]</f>
-        <v>-23170</v>
+        <v>-784</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,20 +4004,20 @@
         <v>536870912</v>
       </c>
       <c r="C30">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>32768</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>841</v>
       </c>
       <c r="D30" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>17592186</v>
+        <v>451508</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>137438G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>3527G</v>
       </c>
       <c r="F30">
         <f>G30-Table1[[#This Row],[threshld]]</f>
-        <v>-32768</v>
+        <v>-841</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4029,20 +4029,20 @@
         <v>1073741824</v>
       </c>
       <c r="C31">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>46340</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>900</v>
       </c>
       <c r="D31" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>49757196</v>
+        <v>966367</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>388728G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>7549G</v>
       </c>
       <c r="F31">
         <f>G31-Table1[[#This Row],[threshld]]</f>
-        <v>-46340</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4054,20 +4054,20 @@
         <v>2147483648</v>
       </c>
       <c r="C32">
-        <f>INT(2^((1+Table1[[#This Row],[bitWidth]])/2))</f>
-        <v>65536</v>
+        <f>Table1[[#This Row],[bitWidth]]^2</f>
+        <v>961</v>
       </c>
       <c r="D32" s="1">
         <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
-        <v>140737488</v>
+        <v>2063731</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>INT((Table1[[#This Row],[elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>1099511G</v>
+        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+        <v>16122G</v>
       </c>
       <c r="F32">
         <f>G32-Table1[[#This Row],[threshld]]</f>
-        <v>0</v>
+        <v>64575</v>
       </c>
       <c r="G32">
         <v>65536</v>

--- a/DomWiki/Memory calculation.xlsx
+++ b/DomWiki/Memory calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGuk\source\repos\P DomWiki\DomWiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444DD59-A5F3-4B50-A912-BA906D817109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A3823-41C2-443F-9DF3-BA4AE034429F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0B61927E-A38C-4ADE-80F7-52585CE592BA}"/>
+    <workbookView xWindow="-27030" yWindow="390" windowWidth="17790" windowHeight="14385" xr2:uid="{0B61927E-A38C-4ADE-80F7-52585CE592BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>bitWidth</t>
   </si>
@@ -50,6 +50,30 @@
   </si>
   <si>
     <t>M.elements</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>G.memory</t>
+  </si>
+  <si>
+    <t>M.memory</t>
+  </si>
+  <si>
+    <t>bytes per element</t>
+  </si>
+  <si>
+    <t>24 bytes - class infrastructure in NET</t>
+  </si>
+  <si>
+    <t>84 bytes - internal class variables</t>
+  </si>
+  <si>
+    <t>32 bytes per row - hashing and threadsafe</t>
+  </si>
+  <si>
+    <t>9 bytes per data</t>
   </si>
 </sst>
 </file>
@@ -103,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -112,13 +136,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -129,6 +172,16 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -524,11 +577,41 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -557,78 +640,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.25113692038495189"/>
-                  <c:y val="-1.8518518518518517E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$32</c:f>
+              <c:f>Sheet1!$I$4:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>65536</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.055555555555555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.421875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9357638888888893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6702806122448983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.506591796875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC64-445B-86BF-1AB7C22A7CA1}"/>
+              <c16:uniqueId val="{00000000-04F1-4C08-9019-4CC20DF45EA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -640,11 +709,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558864536"/>
-        <c:axId val="558866504"/>
+        <c:axId val="551419656"/>
+        <c:axId val="551417032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558864536"/>
+        <c:axId val="551419656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,6 +733,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -700,14 +770,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558866504"/>
+        <c:crossAx val="551417032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558866504"/>
+        <c:axId val="551417032"/>
         <c:scaling>
-          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -763,7 +832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558864536"/>
+        <c:crossAx val="551419656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2831,13 +2900,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2867,23 +2936,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F3B8B0-7E87-402E-BE33-385322F93349}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431D86EA-D250-4BBB-A8D4-198A10E69FDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,21 +3015,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21DBA5BE-A978-4141-A7D8-34F047C31D1B}" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
-  <autoFilter ref="A1:E32" xr:uid="{21DBA5BE-A978-4141-A7D8-34F047C31D1B}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21DBA5BE-A978-4141-A7D8-34F047C31D1B}" name="Table1" displayName="Table1" ref="A1:I32" totalsRowShown="0">
+  <autoFilter ref="A1:I32" xr:uid="{21DBA5BE-A978-4141-A7D8-34F047C31D1B}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{507BFA7A-A320-4AAE-8728-4A5D88E2CC95}" name="bitWidth"/>
-    <tableColumn id="2" xr3:uid="{982CBA61-BA72-443F-B0AA-B27DE5D06E7B}" name="arrays" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{982CBA61-BA72-443F-B0AA-B27DE5D06E7B}" name="arrays" dataDxfId="8">
       <calculatedColumnFormula>2^Table1[[#This Row],[bitWidth]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6B7BE2C6-9B97-4201-BFEB-293FF148710C}" name="threshld" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{6B7BE2C6-9B97-4201-BFEB-293FF148710C}" name="threshld" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[bitWidth]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D53CBD5C-1A34-48FB-BE1A-CA31BFF8F641}" name="M.elements" dataDxfId="3">
-      <calculatedColumnFormula>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{D53CBD5C-1A34-48FB-BE1A-CA31BFF8F641}" name="M.elements" dataDxfId="6">
+      <calculatedColumnFormula>INT(Table1[[#This Row],[elements]]/1000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{044C6758-2855-47FF-9CDC-BE9AC7D58BDF}" name="memory" dataDxfId="2">
-      <calculatedColumnFormula>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{C7CA2E38-5452-4C52-ADDE-52799062B397}" name="elements" dataDxfId="5">
+      <calculatedColumnFormula>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{044C6758-2855-47FF-9CDC-BE9AC7D58BDF}" name="G.memory" dataDxfId="4">
+      <calculatedColumnFormula>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F8641882-B280-4908-8EA4-F872EAEE0A56}" name="M.memory" dataDxfId="3">
+      <calculatedColumnFormula>INT(Table1[[#This Row],[memory]]/1024/1024)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{163F655B-5FA5-46B1-A08F-0029EF2C8B3D}" name="memory" dataDxfId="1">
+      <calculatedColumnFormula>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D07F13D2-436E-4EE3-A28C-C35665E02228}" name="bytes per element" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3264,20 +3345,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB13C4E8-4A59-4F24-BCCE-6A5C44C279BC}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="7" max="9" width="11" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3291,10 +3373,25 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3307,15 +3404,34 @@
         <v>1</v>
       </c>
       <c r="D2" s="7">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E2" s="7">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="9">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>190</v>
+      </c>
+      <c r="I2" s="9">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3328,15 +3444,31 @@
         <v>4</v>
       </c>
       <c r="D3" s="7">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E3" s="7">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="9">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>380</v>
+      </c>
+      <c r="I3" s="9">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3349,15 +3481,34 @@
         <v>9</v>
       </c>
       <c r="D4" s="7">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E4" s="7">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>72</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="9">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>1012</v>
+      </c>
+      <c r="I4" s="9">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>14.055555555555555</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3370,15 +3521,31 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E5" s="7">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>256</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="9">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>2924</v>
+      </c>
+      <c r="I5" s="9">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>11.421875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3391,15 +3558,34 @@
         <v>25</v>
       </c>
       <c r="D6" s="7">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E6" s="7">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>800</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="9">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>8332</v>
+      </c>
+      <c r="I6" s="9">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>10.414999999999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3412,15 +3598,31 @@
         <v>36</v>
       </c>
       <c r="D7" s="7">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E7" s="7">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>2304</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="9">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>22892</v>
+      </c>
+      <c r="I7" s="9">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.9357638888888893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3433,15 +3635,31 @@
         <v>49</v>
       </c>
       <c r="D8" s="7">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E8" s="7">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>6272</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="9">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>60652</v>
+      </c>
+      <c r="I8" s="9">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.6702806122448983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3454,29 +3672,31 @@
         <v>64</v>
       </c>
       <c r="D9" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E9" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>16384</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F9">
-        <f>G9-Table1[[#This Row],[threshld]]</f>
+      <c r="G9" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>64</v>
-      </c>
-      <c r="H9">
-        <v>64</v>
-      </c>
-      <c r="I9">
-        <f>LOG(H9,2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>155756</v>
+      </c>
+      <c r="I9" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.506591796875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3489,19 +3709,31 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E10" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>41472</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F10">
-        <f>G10-Table1[[#This Row],[threshld]]</f>
-        <v>-81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>389740</v>
+      </c>
+      <c r="I10" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.3976658950617278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3514,22 +3746,31 @@
         <v>100</v>
       </c>
       <c r="D11" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E11" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>102400</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F11">
-        <f>G11-Table1[[#This Row],[threshld]]</f>
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>954476</v>
+      </c>
+      <c r="I11" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.3210546875000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3542,19 +3783,31 @@
         <v>121</v>
       </c>
       <c r="D12" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E12" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>247808</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F12">
-        <f>G12-Table1[[#This Row],[threshld]]</f>
-        <v>-121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>2295916</v>
+      </c>
+      <c r="I12" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.2648986311983474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3567,22 +3820,31 @@
         <v>144</v>
       </c>
       <c r="D13" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E13" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>589824</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F13">
-        <f>G13-Table1[[#This Row],[threshld]]</f>
-        <v>112</v>
-      </c>
-      <c r="G13">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>5</v>
+      </c>
+      <c r="H13" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>5439596</v>
+      </c>
+      <c r="I13" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.2224053276909714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3595,19 +3857,31 @@
         <v>169</v>
       </c>
       <c r="D14" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E14" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>1384448</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F14">
-        <f>G14-Table1[[#This Row],[threshld]]</f>
-        <v>-169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>12</v>
+      </c>
+      <c r="H14" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>12722284</v>
+      </c>
+      <c r="I14" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.1894271218565091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3620,22 +3894,31 @@
         <v>196</v>
       </c>
       <c r="D15" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>3</v>
       </c>
-      <c r="E15" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E15" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>3211264</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F15">
-        <f>G15-Table1[[#This Row],[threshld]]</f>
-        <v>316</v>
-      </c>
-      <c r="G15">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>28</v>
+      </c>
+      <c r="H15" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>29425772</v>
+      </c>
+      <c r="I15" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.1632989377391585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3648,23 +3931,28 @@
         <v>225</v>
       </c>
       <c r="D16" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>7</v>
       </c>
-      <c r="E16" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E16" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>7372800</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F16">
-        <f>G16-Table1[[#This Row],[threshld]]</f>
-        <v>-225</v>
-      </c>
-      <c r="H16">
-        <v>512</v>
-      </c>
-      <c r="I16">
-        <f>LOG(H16,2)</f>
-        <v>9</v>
+      <c r="G16" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>64</v>
+      </c>
+      <c r="H16" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>67403884</v>
+      </c>
+      <c r="I16" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.1422368706597226</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3680,19 +3968,28 @@
         <v>256</v>
       </c>
       <c r="D17" s="5">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>16</v>
       </c>
-      <c r="E17" s="5" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E17" s="5">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>16777216</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F17">
-        <f>G17-Table1[[#This Row],[threshld]]</f>
-        <v>768</v>
-      </c>
-      <c r="G17">
-        <v>1024</v>
+      <c r="G17" s="12">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>146</v>
+      </c>
+      <c r="H17" s="12">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>153092204</v>
+      </c>
+      <c r="I17" s="12">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.1250064373016357</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,16 +4005,28 @@
         <v>289</v>
       </c>
       <c r="D18" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>37</v>
       </c>
-      <c r="E18" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E18" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>37879808</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F18">
-        <f>G18-Table1[[#This Row],[threshld]]</f>
-        <v>-289</v>
+      <c r="G18" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>329</v>
+      </c>
+      <c r="H18" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>345112684</v>
+      </c>
+      <c r="I18" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.1107294947218325</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3733,16 +4042,28 @@
         <v>324</v>
       </c>
       <c r="D19" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>84</v>
       </c>
-      <c r="E19" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E19" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>84934656</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>0G</v>
       </c>
-      <c r="F19">
-        <f>G19-Table1[[#This Row],[threshld]]</f>
-        <v>-324</v>
+      <c r="G19" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>737</v>
+      </c>
+      <c r="H19" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>772800620</v>
+      </c>
+      <c r="I19" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0987667036645199</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3758,16 +4079,28 @@
         <v>361</v>
       </c>
       <c r="D20" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>189</v>
       </c>
-      <c r="E20" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E20" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>189267968</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>1G</v>
       </c>
-      <c r="F20">
-        <f>G20-Table1[[#This Row],[threshld]]</f>
-        <v>-361</v>
+      <c r="G20" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>1640</v>
+      </c>
+      <c r="H20" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>1720189036</v>
+      </c>
+      <c r="I20" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0886432298993132</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3783,16 +4116,28 @@
         <v>400</v>
       </c>
       <c r="D21" s="3">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>419</v>
       </c>
-      <c r="E21" s="3" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E21" s="3">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>419430400</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>3G</v>
       </c>
-      <c r="F21">
-        <f>G21-Table1[[#This Row],[threshld]]</f>
-        <v>-400</v>
+      <c r="G21" s="11">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>3632</v>
+      </c>
+      <c r="H21" s="11">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>3808428140</v>
+      </c>
+      <c r="I21" s="11">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0800002574920651</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3808,16 +4153,28 @@
         <v>441</v>
       </c>
       <c r="D22" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>924</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
+      <c r="E22" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>924844032</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
         <v>7G</v>
       </c>
-      <c r="F22">
-        <f>G22-Table1[[#This Row],[threshld]]</f>
-        <v>-441</v>
+      <c r="G22" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>8002</v>
+      </c>
+      <c r="H22" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>8390705260</v>
+      </c>
+      <c r="I22" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0725624750530915</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3833,16 +4190,28 @@
         <v>484</v>
       </c>
       <c r="D23" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>2030</v>
       </c>
-      <c r="E23" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>15G</v>
-      </c>
-      <c r="F23">
-        <f>G23-Table1[[#This Row],[threshld]]</f>
-        <v>-484</v>
+      <c r="E23" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>2030043136</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>17G</v>
+      </c>
+      <c r="G23" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>17552</v>
+      </c>
+      <c r="H23" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>18404606060</v>
+      </c>
+      <c r="I23" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0661157556801797</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3858,16 +4227,28 @@
         <v>529</v>
       </c>
       <c r="D24" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>4437</v>
       </c>
-      <c r="E24" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>34G</v>
-      </c>
-      <c r="F24">
-        <f>G24-Table1[[#This Row],[threshld]]</f>
-        <v>-529</v>
+      <c r="E24" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>4437573632</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>37G</v>
+      </c>
+      <c r="G24" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>38344</v>
+      </c>
+      <c r="H24" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>40206598252</v>
+      </c>
+      <c r="I24" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.060491517721367</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3883,16 +4264,28 @@
         <v>576</v>
       </c>
       <c r="D25" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>9663</v>
       </c>
-      <c r="E25" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>75G</v>
-      </c>
-      <c r="F25">
-        <f>G25-Table1[[#This Row],[threshld]]</f>
-        <v>-576</v>
+      <c r="E25" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>9663676416</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>81G</v>
+      </c>
+      <c r="G25" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>83456</v>
+      </c>
+      <c r="H25" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>87509958764</v>
+      </c>
+      <c r="I25" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0555555667314263</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3908,16 +4301,28 @@
         <v>625</v>
       </c>
       <c r="D26" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>20971</v>
       </c>
-      <c r="E26" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>163G</v>
-      </c>
-      <c r="F26">
-        <f>G26-Table1[[#This Row],[threshld]]</f>
-        <v>-625</v>
+      <c r="E26" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>20971520000</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>176G</v>
+      </c>
+      <c r="G26" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>181024</v>
+      </c>
+      <c r="H26" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>189817421932</v>
+      </c>
+      <c r="I26" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0512000051498411</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3933,16 +4338,28 @@
         <v>676</v>
       </c>
       <c r="D27" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>45365</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>354G</v>
-      </c>
-      <c r="F27">
-        <f>G27-Table1[[#This Row],[threshld]]</f>
-        <v>-676</v>
+      <c r="E27" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>45365592064</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>382G</v>
+      </c>
+      <c r="G27" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>391424</v>
+      </c>
+      <c r="H27" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>410437812332</v>
+      </c>
+      <c r="I27" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0473372804871683</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3958,16 +4375,28 @@
         <v>729</v>
       </c>
       <c r="D28" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>97844</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>764G</v>
-      </c>
-      <c r="F28">
-        <f>G28-Table1[[#This Row],[threshld]]</f>
-        <v>-729</v>
+      <c r="E28" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>97844723712</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>824G</v>
+      </c>
+      <c r="G28" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>843904</v>
+      </c>
+      <c r="H28" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>884897480812</v>
+      </c>
+      <c r="I28" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0438957487032408</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3983,16 +4412,28 @@
         <v>784</v>
       </c>
       <c r="D29" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>210453</v>
       </c>
-      <c r="E29" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>1644G</v>
-      </c>
-      <c r="F29">
-        <f>G29-Table1[[#This Row],[threshld]]</f>
-        <v>-784</v>
+      <c r="E29" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>210453397504</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>1772G</v>
+      </c>
+      <c r="G29" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>1814528</v>
+      </c>
+      <c r="H29" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>1902670512236</v>
+      </c>
+      <c r="I29" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0408163270437907</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4008,16 +4449,28 @@
         <v>841</v>
       </c>
       <c r="D30" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>451508</v>
       </c>
-      <c r="E30" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>3527G</v>
-      </c>
-      <c r="F30">
-        <f>G30-Table1[[#This Row],[threshld]]</f>
-        <v>-841</v>
+      <c r="E30" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>451508436992</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>3800G</v>
+      </c>
+      <c r="G30" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>3891712</v>
+      </c>
+      <c r="H30" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>4080755802220</v>
+      </c>
+      <c r="I30" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0380499407861663</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4033,16 +4486,28 @@
         <v>900</v>
       </c>
       <c r="D31" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>966367</v>
       </c>
-      <c r="E31" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>7549G</v>
-      </c>
-      <c r="F31">
-        <f>G31-Table1[[#This Row],[threshld]]</f>
-        <v>-900</v>
+      <c r="E31" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>966367641600</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>8132G</v>
+      </c>
+      <c r="G31" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>8327168</v>
+      </c>
+      <c r="H31" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>8731668512876</v>
+      </c>
+      <c r="I31" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0355555556673135</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4058,31 +4523,33 @@
         <v>961</v>
       </c>
       <c r="D32" s="1">
-        <f>INT(Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]/1000000)</f>
+        <f>INT(Table1[[#This Row],[elements]]/1000000)</f>
         <v>2063731</v>
       </c>
-      <c r="E32" s="1" t="str">
-        <f>INT((Table1[[#This Row],[M.elements]]*8*1024*1024+Table1[[#This Row],[bitWidth]]*(8+4+1))/1024/1024/1024) &amp; "G"</f>
-        <v>16122G</v>
-      </c>
-      <c r="F32">
-        <f>G32-Table1[[#This Row],[threshld]]</f>
-        <v>64575</v>
-      </c>
-      <c r="G32">
-        <v>65536</v>
-      </c>
-      <c r="H32">
-        <v>65536</v>
-      </c>
-      <c r="I32">
-        <f>LOG(H32,2)</f>
-        <v>16</v>
+      <c r="E32" s="1">
+        <f>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</f>
+        <v>2063731785728</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>17362G</v>
+      </c>
+      <c r="G32" s="10">
+        <f>INT(Table1[[#This Row],[memory]]/1024/1024)</f>
+        <v>17778688</v>
+      </c>
+      <c r="H32" s="10">
+        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <v>18642305548396</v>
+      </c>
+      <c r="I32" s="10">
+        <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
+        <v>9.0332986472947887</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>65535</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4118,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B35" si="0">A2/A3</f>
+        <f t="shared" ref="B2:B34" si="0">A2/A3</f>
         <v>0.66666666666666663</v>
       </c>
     </row>

--- a/DomWiki/Memory calculation.xlsx
+++ b/DomWiki/Memory calculation.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGuk\source\repos\P DomWiki\DomWiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A3823-41C2-443F-9DF3-BA4AE034429F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CB83C-7977-4EE8-AE48-B6E3254D679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27030" yWindow="390" windowWidth="17790" windowHeight="14385" xr2:uid="{0B61927E-A38C-4ADE-80F7-52585CE592BA}"/>
+    <workbookView xWindow="-915" yWindow="15" windowWidth="20475" windowHeight="9195" activeTab="2" xr2:uid="{0B61927E-A38C-4ADE-80F7-52585CE592BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Handex" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="MiniHandex" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>bitWidth</t>
   </si>
@@ -64,16 +66,37 @@
     <t>bytes per element</t>
   </si>
   <si>
-    <t>24 bytes - class infrastructure in NET</t>
+    <t>bytes - class infrastructure in NET</t>
   </si>
   <si>
-    <t>84 bytes - internal class variables</t>
+    <t>bytes - internal class variables</t>
   </si>
   <si>
-    <t>32 bytes per row - hashing and threadsafe</t>
+    <t>bytes per row - hashing and threadsafe</t>
   </si>
   <si>
-    <t>9 bytes per data</t>
+    <t>bytes per data</t>
+  </si>
+  <si>
+    <t>MiniHandex - is short version of Handex, storing hash in 3 bytes, and address in row - 1 byte.</t>
+  </si>
+  <si>
+    <t>Total number of elements in MiniHandex is 4G (maximum UINT value)</t>
+  </si>
+  <si>
+    <t>rowsCount</t>
+  </si>
+  <si>
+    <t>bytes per data (reference + signarure)</t>
+  </si>
+  <si>
+    <t>bytes - references to data arrays</t>
+  </si>
+  <si>
+    <t>bytes - static vars and internal objects</t>
+  </si>
+  <si>
+    <t>bytes per row - row item count, lock</t>
   </si>
 </sst>
 </file>
@@ -89,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +137,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -127,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -151,14 +180,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -172,6 +199,45 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -284,7 +350,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$32</c:f>
+              <c:f>Handex!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -642,7 +708,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$9</c:f>
+              <c:f>Handex!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -669,7 +735,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$9</c:f>
+              <c:f>Handex!$I$4:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1254,6 +1320,345 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MiniHandex!$E$10:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1605632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MiniHandex!$I$10:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.109375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.52734375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2282986111111107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.126708984375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0805468749999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0557454427083339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0408860809948983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0312767028808594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73FC-47DC-B936-A2C63A258BFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="551419656"/>
+        <c:axId val="551417032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="551419656"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551417032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="551417032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551419656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1374,6 +1779,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2877,6 +3322,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3014,34 +3975,111 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610B92D5-E385-43BF-BB06-24001D4BC671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21DBA5BE-A978-4141-A7D8-34F047C31D1B}" name="Table1" displayName="Table1" ref="A1:I32" totalsRowShown="0">
   <autoFilter ref="A1:I32" xr:uid="{21DBA5BE-A978-4141-A7D8-34F047C31D1B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{507BFA7A-A320-4AAE-8728-4A5D88E2CC95}" name="bitWidth"/>
-    <tableColumn id="2" xr3:uid="{982CBA61-BA72-443F-B0AA-B27DE5D06E7B}" name="arrays" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{982CBA61-BA72-443F-B0AA-B27DE5D06E7B}" name="arrays" dataDxfId="17">
       <calculatedColumnFormula>2^Table1[[#This Row],[bitWidth]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6B7BE2C6-9B97-4201-BFEB-293FF148710C}" name="threshld" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{6B7BE2C6-9B97-4201-BFEB-293FF148710C}" name="threshld" dataDxfId="16">
       <calculatedColumnFormula>Table1[[#This Row],[bitWidth]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D53CBD5C-1A34-48FB-BE1A-CA31BFF8F641}" name="M.elements" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{D53CBD5C-1A34-48FB-BE1A-CA31BFF8F641}" name="M.elements" dataDxfId="15">
       <calculatedColumnFormula>INT(Table1[[#This Row],[elements]]/1000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C7CA2E38-5452-4C52-ADDE-52799062B397}" name="elements" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{C7CA2E38-5452-4C52-ADDE-52799062B397}" name="elements" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[arrays]]*Table1[[#This Row],[threshld]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{044C6758-2855-47FF-9CDC-BE9AC7D58BDF}" name="G.memory" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{044C6758-2855-47FF-9CDC-BE9AC7D58BDF}" name="G.memory" dataDxfId="13">
       <calculatedColumnFormula>INT(Table1[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F8641882-B280-4908-8EA4-F872EAEE0A56}" name="M.memory" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{F8641882-B280-4908-8EA4-F872EAEE0A56}" name="M.memory" dataDxfId="12">
       <calculatedColumnFormula>INT(Table1[[#This Row],[memory]]/1024/1024)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{163F655B-5FA5-46B1-A08F-0029EF2C8B3D}" name="memory" dataDxfId="1">
-      <calculatedColumnFormula>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{163F655B-5FA5-46B1-A08F-0029EF2C8B3D}" name="memory" dataDxfId="11">
+      <calculatedColumnFormula>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D07F13D2-436E-4EE3-A28C-C35665E02228}" name="bytes per element" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{D07F13D2-436E-4EE3-A28C-C35665E02228}" name="bytes per element" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB0296A0-9CB4-491D-90EB-E436331493F1}" name="Table13" displayName="Table13" ref="A1:I25" totalsRowShown="0">
+  <autoFilter ref="A1:I25" xr:uid="{BB0296A0-9CB4-491D-90EB-E436331493F1}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{85F5FFC2-BBBF-43F1-BCFD-4144DED4B008}" name="bitWidth"/>
+    <tableColumn id="2" xr3:uid="{6E46C219-21DD-4EC3-BF3F-46D1D065C3A0}" name="rowsCount" dataDxfId="9">
+      <calculatedColumnFormula>2^Table13[[#This Row],[bitWidth]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{FEC65AE3-B8F8-4ACD-B454-32FF7D5648C0}" name="threshld" dataDxfId="8">
+      <calculatedColumnFormula>(Table13[[#This Row],[bitWidth]]-8)^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D0D0B7FA-2E24-487A-8FBD-E102BF69B68B}" name="M.elements" dataDxfId="7">
+      <calculatedColumnFormula>INT(Table13[[#This Row],[elements]]/1000000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2A379817-637B-4EB7-A45A-35D9B0381AC4}" name="elements" dataDxfId="6">
+      <calculatedColumnFormula>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5D840757-23AE-491A-BD07-6E8DFEEDBA3D}" name="G.memory" dataDxfId="5">
+      <calculatedColumnFormula>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{A9E3BAE8-3A46-4194-B6D0-3D5647FFA6CF}" name="M.memory" dataDxfId="4">
+      <calculatedColumnFormula>INT(Table13[[#This Row],[memory]]/1024/1024)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{831BED25-A67F-42D5-9767-FC23E91AA073}" name="memory" dataDxfId="0">
+      <calculatedColumnFormula>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B030448B-B89C-4C4A-A874-EFA8542DB001}" name="bytes per element" dataDxfId="3">
+      <calculatedColumnFormula>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3345,21 +4383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB13C4E8-4A59-4F24-BCCE-6A5C44C279BC}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="6" width="11" customWidth="1"/>
     <col min="7" max="9" width="11" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3387,11 +4425,14 @@
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3420,18 +4461,21 @@
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>190</v>
       </c>
       <c r="I2" s="9">
         <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
         <v>95</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3460,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>380</v>
       </c>
       <c r="I3" s="9">
@@ -3468,7 +4512,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3497,18 +4541,21 @@
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>1012</v>
       </c>
       <c r="I4" s="9">
         <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
         <v>14.055555555555555</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3537,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>2924</v>
       </c>
       <c r="I5" s="9">
@@ -3545,7 +4592,7 @@
         <v>11.421875</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3574,18 +4621,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>8332</v>
       </c>
       <c r="I6" s="9">
         <f>Table1[[#This Row],[memory]]/Table1[[#This Row],[elements]]</f>
         <v>10.414999999999999</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3614,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>22892</v>
       </c>
       <c r="I7" s="9">
@@ -3622,7 +4672,7 @@
         <v>9.9357638888888893</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3651,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>60652</v>
       </c>
       <c r="I8" s="9">
@@ -3659,7 +4709,7 @@
         <v>9.6702806122448983</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3688,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>155756</v>
       </c>
       <c r="I9" s="10">
@@ -3696,7 +4746,7 @@
         <v>9.506591796875</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3725,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>389740</v>
       </c>
       <c r="I10" s="10">
@@ -3733,7 +4783,7 @@
         <v>9.3976658950617278</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3762,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>954476</v>
       </c>
       <c r="I11" s="11">
@@ -3770,7 +4820,7 @@
         <v>9.3210546875000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3799,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>2295916</v>
       </c>
       <c r="I12" s="11">
@@ -3807,7 +4857,7 @@
         <v>9.2648986311983474</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3836,7 +4886,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>5439596</v>
       </c>
       <c r="I13" s="11">
@@ -3844,7 +4894,7 @@
         <v>9.2224053276909714</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3873,7 +4923,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>12722284</v>
       </c>
       <c r="I14" s="11">
@@ -3881,7 +4931,7 @@
         <v>9.1894271218565091</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3910,7 +4960,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>29425772</v>
       </c>
       <c r="I15" s="11">
@@ -3918,7 +4968,7 @@
         <v>9.1632989377391585</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3947,7 +4997,7 @@
         <v>64</v>
       </c>
       <c r="H16" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>67403884</v>
       </c>
       <c r="I16" s="11">
@@ -3955,7 +5005,7 @@
         <v>9.1422368706597226</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3984,7 +5034,7 @@
         <v>146</v>
       </c>
       <c r="H17" s="12">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>153092204</v>
       </c>
       <c r="I17" s="12">
@@ -3992,7 +5042,7 @@
         <v>9.1250064373016357</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4021,7 +5071,7 @@
         <v>329</v>
       </c>
       <c r="H18" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>345112684</v>
       </c>
       <c r="I18" s="11">
@@ -4029,7 +5079,7 @@
         <v>9.1107294947218325</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4058,7 +5108,7 @@
         <v>737</v>
       </c>
       <c r="H19" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>772800620</v>
       </c>
       <c r="I19" s="11">
@@ -4066,7 +5116,7 @@
         <v>9.0987667036645199</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4095,7 +5145,7 @@
         <v>1640</v>
       </c>
       <c r="H20" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>1720189036</v>
       </c>
       <c r="I20" s="11">
@@ -4103,7 +5153,7 @@
         <v>9.0886432298993132</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4132,7 +5182,7 @@
         <v>3632</v>
       </c>
       <c r="H21" s="11">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>3808428140</v>
       </c>
       <c r="I21" s="11">
@@ -4140,7 +5190,7 @@
         <v>9.0800002574920651</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4169,7 +5219,7 @@
         <v>8002</v>
       </c>
       <c r="H22" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>8390705260</v>
       </c>
       <c r="I22" s="10">
@@ -4177,7 +5227,7 @@
         <v>9.0725624750530915</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4206,7 +5256,7 @@
         <v>17552</v>
       </c>
       <c r="H23" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>18404606060</v>
       </c>
       <c r="I23" s="10">
@@ -4214,7 +5264,7 @@
         <v>9.0661157556801797</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4243,7 +5293,7 @@
         <v>38344</v>
       </c>
       <c r="H24" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>40206598252</v>
       </c>
       <c r="I24" s="10">
@@ -4251,7 +5301,7 @@
         <v>9.060491517721367</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4280,7 +5330,7 @@
         <v>83456</v>
       </c>
       <c r="H25" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>87509958764</v>
       </c>
       <c r="I25" s="10">
@@ -4288,7 +5338,7 @@
         <v>9.0555555667314263</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4317,7 +5367,7 @@
         <v>181024</v>
       </c>
       <c r="H26" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>189817421932</v>
       </c>
       <c r="I26" s="10">
@@ -4325,7 +5375,7 @@
         <v>9.0512000051498411</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4354,7 +5404,7 @@
         <v>391424</v>
       </c>
       <c r="H27" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>410437812332</v>
       </c>
       <c r="I27" s="10">
@@ -4362,7 +5412,7 @@
         <v>9.0473372804871683</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4391,7 +5441,7 @@
         <v>843904</v>
       </c>
       <c r="H28" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>884897480812</v>
       </c>
       <c r="I28" s="10">
@@ -4399,7 +5449,7 @@
         <v>9.0438957487032408</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4428,7 +5478,7 @@
         <v>1814528</v>
       </c>
       <c r="H29" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>1902670512236</v>
       </c>
       <c r="I29" s="10">
@@ -4436,7 +5486,7 @@
         <v>9.0408163270437907</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4465,7 +5515,7 @@
         <v>3891712</v>
       </c>
       <c r="H30" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>4080755802220</v>
       </c>
       <c r="I30" s="10">
@@ -4473,7 +5523,7 @@
         <v>9.0380499407861663</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4502,7 +5552,7 @@
         <v>8327168</v>
       </c>
       <c r="H31" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>8731668512876</v>
       </c>
       <c r="I31" s="10">
@@ -4510,7 +5560,7 @@
         <v>9.0355555556673135</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4539,7 +5589,7 @@
         <v>17778688</v>
       </c>
       <c r="H32" s="10">
-        <f>24+84+32*2^Table1[[#This Row],[bitWidth]]+9*Table1[[#This Row],[elements]]</f>
+        <f>$K$1+$K$2+$K$4*2^Table1[[#This Row],[bitWidth]]+$K$6*Table1[[#This Row],[elements]]</f>
         <v>18642305548396</v>
       </c>
       <c r="I32" s="10">
@@ -4569,9 +5619,9 @@
       <selection activeCell="B1" sqref="B1:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4580,7 +5630,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4589,7 +5639,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4598,7 +5648,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4607,7 +5657,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4616,7 +5666,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4625,7 +5675,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4634,7 +5684,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4643,7 +5693,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4652,7 +5702,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4661,7 +5711,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4670,7 +5720,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4679,7 +5729,7 @@
         <v>0.92307692307692313</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -4688,7 +5738,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -4697,7 +5747,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -4706,7 +5756,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -4715,7 +5765,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4724,7 +5774,7 @@
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4733,7 +5783,7 @@
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4742,7 +5792,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4751,7 +5801,7 @@
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4760,7 +5810,7 @@
         <v>0.95454545454545459</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4769,7 +5819,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4778,7 +5828,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4787,7 +5837,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4796,7 +5846,7 @@
         <v>0.96153846153846156</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4805,7 +5855,7 @@
         <v>0.96296296296296291</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4814,7 +5864,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4823,7 +5873,7 @@
         <v>0.96551724137931039</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4832,7 +5882,7 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4841,7 +5891,7 @@
         <v>0.967741935483871</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4850,7 +5900,7 @@
         <v>0.96875</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4859,7 +5909,7 @@
         <v>0.96969696969696972</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4868,7 +5918,7 @@
         <v>0.97058823529411764</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4877,7 +5927,7 @@
         <v>0.97142857142857142</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4885,6 +5935,985 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B854F05-C794-40FE-B60A-B359CDA8843C}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>49</v>
+      </c>
+      <c r="D2" s="7">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>98</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G2" s="9">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>998</v>
+      </c>
+      <c r="I2" s="9">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>10.183673469387756</v>
+      </c>
+      <c r="K2">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>36</v>
+      </c>
+      <c r="D3" s="7">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>144</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G3" s="9">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>1416</v>
+      </c>
+      <c r="I3" s="9">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>200</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G4" s="9">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>1928</v>
+      </c>
+      <c r="I4" s="9">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.64</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>256</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G5" s="9">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>2448</v>
+      </c>
+      <c r="I5" s="9">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>32</v>
+      </c>
+      <c r="C6" s="6">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>288</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G6" s="9">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>2768</v>
+      </c>
+      <c r="I6" s="9">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.6111111111111107</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>64</v>
+      </c>
+      <c r="C7" s="6">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>256</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G7" s="9">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>2544</v>
+      </c>
+      <c r="I7" s="9">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.9375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>128</v>
+      </c>
+      <c r="C8" s="6">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>128</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G8" s="9">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>1520</v>
+      </c>
+      <c r="I8" s="9">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>11.875</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>256</v>
+      </c>
+      <c r="C9" s="6">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G9" s="9">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>624</v>
+      </c>
+      <c r="I9" s="9" t="e">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>512</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>1024</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G10" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>10352</v>
+      </c>
+      <c r="I10" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>10.109375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>1024</v>
+      </c>
+      <c r="C11" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>4096</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G11" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>39024</v>
+      </c>
+      <c r="I11" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.52734375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>2048</v>
+      </c>
+      <c r="C12" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>18432</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G12" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>170096</v>
+      </c>
+      <c r="I12" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.2282986111111107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>4096</v>
+      </c>
+      <c r="C13" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>65536</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G13" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>598128</v>
+      </c>
+      <c r="I13" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.126708984375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>8192</v>
+      </c>
+      <c r="C14" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>25</v>
+      </c>
+      <c r="D14" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>204800</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G14" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>1859696</v>
+      </c>
+      <c r="I14" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0805468749999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>16384</v>
+      </c>
+      <c r="C15" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>36</v>
+      </c>
+      <c r="D15" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>589824</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G15" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>5</v>
+      </c>
+      <c r="H15" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>5341296</v>
+      </c>
+      <c r="I15" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0557454427083339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>32768</v>
+      </c>
+      <c r="C16" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>49</v>
+      </c>
+      <c r="D16" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>1605632</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G16" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>13</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>14516336</v>
+      </c>
+      <c r="I16" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0408860809948983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>65536</v>
+      </c>
+      <c r="C17" s="4">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>64</v>
+      </c>
+      <c r="D17" s="5">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>4</v>
+      </c>
+      <c r="E17" s="5">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>4194304</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G17" s="12">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>36</v>
+      </c>
+      <c r="H17" s="12">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>37879920</v>
+      </c>
+      <c r="I17" s="12">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0312767028808594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>131072</v>
+      </c>
+      <c r="C18" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>81</v>
+      </c>
+      <c r="D18" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>10616832</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G18" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>91</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>95813744</v>
+      </c>
+      <c r="I18" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0247019073109573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>262144</v>
+      </c>
+      <c r="C19" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>100</v>
+      </c>
+      <c r="D19" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>26</v>
+      </c>
+      <c r="E19" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>26214400</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G19" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>225</v>
+      </c>
+      <c r="H19" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>236454000</v>
+      </c>
+      <c r="I19" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0200042724609375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>524288</v>
+      </c>
+      <c r="C20" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>121</v>
+      </c>
+      <c r="D20" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>63</v>
+      </c>
+      <c r="E20" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>63438848</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>0G</v>
+      </c>
+      <c r="G20" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>545</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>571998320</v>
+      </c>
+      <c r="I20" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0165306910995611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>1048576</v>
+      </c>
+      <c r="C21" s="2">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>144</v>
+      </c>
+      <c r="D21" s="3">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>150</v>
+      </c>
+      <c r="E21" s="3">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>150994944</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>1G</v>
+      </c>
+      <c r="G21" s="11">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>1298</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>1361051760</v>
+      </c>
+      <c r="I21" s="11">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.01388963063558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>2097152</v>
+      </c>
+      <c r="C22">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>169</v>
+      </c>
+      <c r="D22" s="1">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>354</v>
+      </c>
+      <c r="E22" s="1">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>354418688</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>2G</v>
+      </c>
+      <c r="G22" s="10">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>3046</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>3193962608</v>
+      </c>
+      <c r="I22" s="10">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0118346355370509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>4194304</v>
+      </c>
+      <c r="C23">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>196</v>
+      </c>
+      <c r="D23" s="1">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>822</v>
+      </c>
+      <c r="E23" s="1">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>822083584</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>6G</v>
+      </c>
+      <c r="G23" s="10">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>7064</v>
+      </c>
+      <c r="H23" s="10">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>7407140976</v>
+      </c>
+      <c r="I23" s="10">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0102042178718413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>8388608</v>
+      </c>
+      <c r="C24">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>225</v>
+      </c>
+      <c r="D24" s="1">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>1887</v>
+      </c>
+      <c r="E24" s="1">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>1887436800</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>15G</v>
+      </c>
+      <c r="G24" s="10">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>16216</v>
+      </c>
+      <c r="H24" s="10">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>17003708528</v>
+      </c>
+      <c r="I24" s="10">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0088889482286234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f>2^Table13[[#This Row],[bitWidth]]</f>
+        <v>16777216</v>
+      </c>
+      <c r="C25">
+        <f>(Table13[[#This Row],[bitWidth]]-8)^2</f>
+        <v>256</v>
+      </c>
+      <c r="D25" s="1">
+        <f>INT(Table13[[#This Row],[elements]]/1000000)</f>
+        <v>4294</v>
+      </c>
+      <c r="E25" s="1">
+        <f>Table13[[#This Row],[rowsCount]]*Table13[[#This Row],[threshld]]</f>
+        <v>4294967296</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024/1024) &amp; "G"</f>
+        <v>36G</v>
+      </c>
+      <c r="G25" s="10">
+        <f>INT(Table13[[#This Row],[memory]]/1024/1024)</f>
+        <v>36896</v>
+      </c>
+      <c r="H25" s="10">
+        <f>SUM($K$1:$K$3)+$K$4*2^Table13[[#This Row],[bitWidth]]+$K$6*Table13[[#This Row],[elements]]</f>
+        <v>38688260208</v>
+      </c>
+      <c r="I25" s="10">
+        <f>Table13[[#This Row],[memory]]/Table13[[#This Row],[elements]]</f>
+        <v>9.0078125260770321</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>65535</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
